--- a/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.130851844130405</v>
+        <v>5.130851844130291</v>
       </c>
       <c r="C2">
-        <v>0.8111032469679742</v>
+        <v>0.8111032469677468</v>
       </c>
       <c r="D2">
         <v>0.06939121110688973</v>
       </c>
       <c r="E2">
-        <v>0.01785111196662736</v>
+        <v>0.01785111196660072</v>
       </c>
       <c r="F2">
-        <v>2.782016439480344</v>
+        <v>2.782016439480259</v>
       </c>
       <c r="G2">
-        <v>0.0007903094504737903</v>
+        <v>0.0007903094503583936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3726932731976262</v>
+        <v>0.3726932731977541</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.184564965419398</v>
+        <v>1.184564965419298</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.446284463628729</v>
+        <v>4.446284463628842</v>
       </c>
       <c r="C3">
-        <v>0.6971631324287841</v>
+        <v>0.6971631324287557</v>
       </c>
       <c r="D3">
-        <v>0.06897445523070189</v>
+        <v>0.06897445523091505</v>
       </c>
       <c r="E3">
-        <v>0.0179225846110258</v>
+        <v>0.01792258461102625</v>
       </c>
       <c r="F3">
         <v>2.49528102785807</v>
       </c>
       <c r="G3">
-        <v>0.0008009458266214908</v>
+        <v>0.0008009458266801681</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3260646108691247</v>
+        <v>0.3260646108690679</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.213139730429845</v>
+        <v>1.213139730429916</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.035517054002412</v>
+        <v>4.035517054002298</v>
       </c>
       <c r="C4">
-        <v>0.62848557257675</v>
+        <v>0.6284855725770058</v>
       </c>
       <c r="D4">
-        <v>0.06890339217536479</v>
+        <v>0.06890339217526531</v>
       </c>
       <c r="E4">
-        <v>0.01798366161289744</v>
+        <v>0.01798366161292808</v>
       </c>
       <c r="F4">
-        <v>2.326245066443917</v>
+        <v>2.326245066443931</v>
       </c>
       <c r="G4">
-        <v>0.0008076246986269349</v>
+        <v>0.0008076246986246559</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2981825195822836</v>
+        <v>0.298182519582241</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.870201743814334</v>
+        <v>3.870201743814391</v>
       </c>
       <c r="C5">
-        <v>0.6007670365722788</v>
+        <v>0.6007670365725062</v>
       </c>
       <c r="D5">
-        <v>0.06891678465422046</v>
+        <v>0.06891678465424178</v>
       </c>
       <c r="E5">
-        <v>0.01801268566876013</v>
+        <v>0.01801268566876457</v>
       </c>
       <c r="F5">
         <v>2.258925308176728</v>
       </c>
       <c r="G5">
-        <v>0.0008103864265512333</v>
+        <v>0.0008103864265537331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2869847154053957</v>
+        <v>0.2869847154054099</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241483710760136</v>
+        <v>1.241483710760107</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.842867661703963</v>
+        <v>3.842867661704076</v>
       </c>
       <c r="C6">
-        <v>0.5961791080058845</v>
+        <v>0.5961791080059129</v>
       </c>
       <c r="D6">
-        <v>0.06892145434009223</v>
+        <v>0.06892145434007801</v>
       </c>
       <c r="E6">
-        <v>0.01801774968412717</v>
+        <v>0.01801774968409786</v>
       </c>
       <c r="F6">
         <v>2.247835847454496</v>
       </c>
       <c r="G6">
-        <v>0.0008108475040130084</v>
+        <v>0.0008108475038959079</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2851346068205487</v>
+        <v>0.2851346068205061</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.242938013166693</v>
+        <v>1.242938013166764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.03327955903211</v>
+        <v>4.033279559032167</v>
       </c>
       <c r="C7">
-        <v>0.6281107327353368</v>
+        <v>0.6281107327346547</v>
       </c>
       <c r="D7">
-        <v>0.06890340643337112</v>
+        <v>0.06890340643358428</v>
       </c>
       <c r="E7">
-        <v>0.01798403653470482</v>
+        <v>0.01798403653466885</v>
       </c>
       <c r="F7">
-        <v>2.325331088818956</v>
+        <v>2.32533108881897</v>
       </c>
       <c r="G7">
-        <v>0.0008076617787300548</v>
+        <v>0.0008076617786719536</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2980308661964983</v>
+        <v>0.2980308661964699</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.233021687651345</v>
+        <v>1.233021687651373</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.892620423582741</v>
+        <v>4.892620423582684</v>
       </c>
       <c r="C8">
         <v>0.7715160557287675</v>
       </c>
       <c r="D8">
-        <v>0.06920652052011178</v>
+        <v>0.06920652051998388</v>
       </c>
       <c r="E8">
-        <v>0.01787206732180868</v>
+        <v>0.01787206732181179</v>
       </c>
       <c r="F8">
         <v>2.681564842712135</v>
       </c>
       <c r="G8">
-        <v>0.0007939479063609321</v>
+        <v>0.0007939479063614165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3564453701830672</v>
+        <v>0.356445370183053</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.670497487014529</v>
+        <v>6.670497487014643</v>
       </c>
       <c r="C9">
-        <v>1.065705974593385</v>
+        <v>1.065705974593584</v>
       </c>
       <c r="D9">
-        <v>0.07148146282996493</v>
+        <v>0.07148146282983703</v>
       </c>
       <c r="E9">
-        <v>0.01779865792085733</v>
+        <v>0.01779865792082891</v>
       </c>
       <c r="F9">
         <v>3.446192023791781</v>
       </c>
       <c r="G9">
-        <v>0.0007680874458574786</v>
+        <v>0.0007680874459258702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.478149534350166</v>
+        <v>0.4781495343503366</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.136926902128835</v>
+        <v>1.136926902128849</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.06051737170668</v>
+        <v>8.060517371706396</v>
       </c>
       <c r="C10">
-        <v>1.294309444433054</v>
+        <v>1.294309444432258</v>
       </c>
       <c r="D10">
-        <v>0.07452865136032472</v>
+        <v>0.07452865136018971</v>
       </c>
       <c r="E10">
-        <v>0.01784975698860247</v>
+        <v>0.01784975698849678</v>
       </c>
       <c r="F10">
-        <v>4.064971354801344</v>
+        <v>4.064971354801315</v>
       </c>
       <c r="G10">
-        <v>0.000749487581100896</v>
+        <v>0.0007494875810489381</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5738937327554652</v>
+        <v>0.5738937327555078</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.110282342682623</v>
+        <v>1.110282342682595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.71847863798871</v>
+        <v>8.718478637988596</v>
       </c>
       <c r="C11">
-        <v>1.402257386624228</v>
+        <v>1.402257386624512</v>
       </c>
       <c r="D11">
-        <v>0.07631120988625639</v>
+        <v>0.07631120988648377</v>
       </c>
       <c r="E11">
-        <v>0.01790020613089549</v>
+        <v>0.0179002061308946</v>
       </c>
       <c r="F11">
-        <v>4.363395441317152</v>
+        <v>4.363395441317124</v>
       </c>
       <c r="G11">
-        <v>0.0007410509576138596</v>
+        <v>0.000741050957612903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6193567232046604</v>
+        <v>0.6193567232047599</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.102359187513272</v>
+        <v>1.102359187513287</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.972066111497611</v>
+        <v>8.972066111498066</v>
       </c>
       <c r="C12">
-        <v>1.443829756404114</v>
+        <v>1.443829756404682</v>
       </c>
       <c r="D12">
-        <v>0.07705331460910259</v>
+        <v>0.07705331460915943</v>
       </c>
       <c r="E12">
-        <v>0.01792367424288432</v>
+        <v>0.01792367424290742</v>
       </c>
       <c r="F12">
-        <v>4.479297177848622</v>
+        <v>4.47929717784865</v>
       </c>
       <c r="G12">
-        <v>0.0007378535341161082</v>
+        <v>0.0007378535341140417</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6369005004166439</v>
+        <v>0.6369005004166297</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.917241098791237</v>
+        <v>8.917241098791465</v>
       </c>
       <c r="C13">
-        <v>1.434843242414502</v>
+        <v>1.434843242414274</v>
       </c>
       <c r="D13">
-        <v>0.076890323413771</v>
+        <v>0.07689032341392021</v>
       </c>
       <c r="E13">
-        <v>0.01791841773638492</v>
+        <v>0.01791841773638581</v>
       </c>
       <c r="F13">
-        <v>4.454198707979629</v>
+        <v>4.454198707979685</v>
       </c>
       <c r="G13">
-        <v>0.0007385423850092531</v>
+        <v>0.000738542385009437</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6331065959719666</v>
+        <v>0.6331065959721656</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.100517500759594</v>
+        <v>1.10051750075958</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>8.739247867133827</v>
       </c>
       <c r="C14">
-        <v>1.40566284034179</v>
+        <v>1.405662840342359</v>
       </c>
       <c r="D14">
-        <v>0.07637085393260179</v>
+        <v>0.07637085393266574</v>
       </c>
       <c r="E14">
-        <v>0.01790204650497529</v>
+        <v>0.01790204650497262</v>
       </c>
       <c r="F14">
-        <v>4.372869802631385</v>
+        <v>4.372869802631413</v>
       </c>
       <c r="G14">
-        <v>0.0007407879962329228</v>
+        <v>0.0007407879962865073</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6207931481488771</v>
+        <v>0.620793148149005</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.102154991349551</v>
+        <v>1.102154991349536</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.630823405364254</v>
+        <v>8.630823405364026</v>
       </c>
       <c r="C15">
-        <v>1.387883622516824</v>
+        <v>1.387883622516711</v>
       </c>
       <c r="D15">
-        <v>0.07606173348349898</v>
+        <v>0.0760617334836553</v>
       </c>
       <c r="E15">
-        <v>0.01789260187200981</v>
+        <v>0.01789260187201336</v>
       </c>
       <c r="F15">
-        <v>4.323445538627112</v>
+        <v>4.323445538627084</v>
       </c>
       <c r="G15">
-        <v>0.0007421629499881899</v>
+        <v>0.0007421629499138049</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6132952588685328</v>
+        <v>0.6132952588687743</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.103251436002466</v>
+        <v>1.103251436002481</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.018094715477787</v>
+        <v>8.018094715477901</v>
       </c>
       <c r="C16">
-        <v>1.287344651213061</v>
+        <v>1.287344651213289</v>
       </c>
       <c r="D16">
-        <v>0.07442095269229299</v>
+        <v>0.07442095269227877</v>
       </c>
       <c r="E16">
-        <v>0.01784704420330208</v>
+        <v>0.01784704420329586</v>
       </c>
       <c r="F16">
         <v>4.045846944800729</v>
       </c>
       <c r="G16">
-        <v>0.0007500389231083273</v>
+        <v>0.0007500389231238704</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5709653894382996</v>
+        <v>0.5709653894384843</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.110892019004169</v>
+        <v>1.110892019004197</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.649262324461347</v>
+        <v>7.649262324461233</v>
       </c>
       <c r="C17">
-        <v>1.226763118864994</v>
+        <v>1.226763118864937</v>
       </c>
       <c r="D17">
-        <v>0.07352250873315569</v>
+        <v>0.07352250873335464</v>
       </c>
       <c r="E17">
-        <v>0.01782635995610971</v>
+        <v>0.01782635995617277</v>
       </c>
       <c r="F17">
-        <v>3.880190007010839</v>
+        <v>3.880190007010867</v>
       </c>
       <c r="G17">
-        <v>0.000754872784664018</v>
+        <v>0.0007548727846453531</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5455214676926659</v>
+        <v>0.5455214676926516</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.116714197321983</v>
+        <v>1.116714197321969</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>7.439481030625473</v>
       </c>
       <c r="C18">
-        <v>1.192281758681077</v>
+        <v>1.19228175868102</v>
       </c>
       <c r="D18">
-        <v>0.07304235225274169</v>
+        <v>0.0730423522526138</v>
       </c>
       <c r="E18">
-        <v>0.01781699201424125</v>
+        <v>0.01781699201425546</v>
       </c>
       <c r="F18">
-        <v>3.786471104526697</v>
+        <v>3.786471104526669</v>
       </c>
       <c r="G18">
-        <v>0.0007576558309546385</v>
+        <v>0.0007576558310142248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5310627438248758</v>
+        <v>0.5310627438249185</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.120451760169345</v>
+        <v>1.12045176016936</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.368837576369344</v>
+        <v>7.368837576369174</v>
       </c>
       <c r="C19">
-        <v>1.180665913968255</v>
+        <v>1.180665913968085</v>
       </c>
       <c r="D19">
-        <v>0.07288578912171317</v>
+        <v>0.07288578912170607</v>
       </c>
       <c r="E19">
-        <v>0.01781424210876725</v>
+        <v>0.01781424210876281</v>
       </c>
       <c r="F19">
-        <v>3.754995139757057</v>
+        <v>3.754995139757114</v>
       </c>
       <c r="G19">
-        <v>0.0007585987645078504</v>
+        <v>0.0007585987643776715</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5261960024614041</v>
+        <v>0.5261960024613899</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121781494770516</v>
+        <v>1.121781494770445</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.688275777903129</v>
+        <v>7.688275777903243</v>
       </c>
       <c r="C20">
-        <v>1.233173659435693</v>
+        <v>1.233173659435863</v>
       </c>
       <c r="D20">
-        <v>0.07361429409722575</v>
+        <v>0.07361429409721154</v>
       </c>
       <c r="E20">
-        <v>0.01782829706653644</v>
+        <v>0.0178282970665693</v>
       </c>
       <c r="F20">
-        <v>3.897659673746318</v>
+        <v>3.897659673746375</v>
       </c>
       <c r="G20">
-        <v>0.0007543579700806519</v>
+        <v>0.0007543579701523493</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5482114481247464</v>
+        <v>0.548211448124718</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>8.791401912608649</v>
       </c>
       <c r="C21">
-        <v>1.414213854355125</v>
+        <v>1.414213854355353</v>
       </c>
       <c r="D21">
-        <v>0.07652152376366672</v>
+        <v>0.07652152376346066</v>
       </c>
       <c r="E21">
-        <v>0.01790673265821496</v>
+        <v>0.01790673265826115</v>
       </c>
       <c r="F21">
-        <v>4.396675434610358</v>
+        <v>4.396675434610302</v>
       </c>
       <c r="G21">
-        <v>0.0007401285327372353</v>
+        <v>0.0007401285326853725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6244005332217029</v>
+        <v>0.6244005332216886</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.101654362732148</v>
+        <v>1.101654362732162</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.538638567607222</v>
+        <v>9.538638567607336</v>
       </c>
       <c r="C22">
-        <v>1.536660371176595</v>
+        <v>1.53666037117631</v>
       </c>
       <c r="D22">
-        <v>0.07881880561044596</v>
+        <v>0.07881880561024701</v>
       </c>
       <c r="E22">
-        <v>0.01798370863310694</v>
+        <v>0.01798370863311316</v>
       </c>
       <c r="F22">
         <v>4.739961639970232</v>
       </c>
       <c r="G22">
-        <v>0.0007308095762914766</v>
+        <v>0.0007308095761850537</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6761379686066959</v>
+        <v>0.6761379686066391</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.096347100521541</v>
+        <v>1.096347100521527</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>9.137137087570522</v>
       </c>
       <c r="C23">
-        <v>1.470882822100634</v>
+        <v>1.470882822101203</v>
       </c>
       <c r="D23">
-        <v>0.07755248429398875</v>
+        <v>0.07755248429392481</v>
       </c>
       <c r="E23">
-        <v>0.01794009925671691</v>
+        <v>0.01794009925667961</v>
       </c>
       <c r="F23">
         <v>4.554999871030986</v>
       </c>
       <c r="G23">
-        <v>0.0007357873769376421</v>
+        <v>0.0007357873769608309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6483266573874431</v>
+        <v>0.6483266573874005</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.670630794003273</v>
+        <v>7.6706307940035</v>
       </c>
       <c r="C24">
-        <v>1.230274380008268</v>
+        <v>1.230274380008439</v>
       </c>
       <c r="D24">
-        <v>0.07357268538309114</v>
+        <v>0.07357268538292772</v>
       </c>
       <c r="E24">
-        <v>0.017827413470763</v>
+        <v>0.01782741347082339</v>
       </c>
       <c r="F24">
-        <v>3.889756938170535</v>
+        <v>3.889756938170621</v>
       </c>
       <c r="G24">
-        <v>0.0007545907048088724</v>
+        <v>0.0007545907048783723</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5469947844661931</v>
+        <v>0.5469947844662784</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.116351030020965</v>
+        <v>1.116351030021008</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.177029123619263</v>
+        <v>6.177029123619207</v>
       </c>
       <c r="C25">
-        <v>0.9843017552816775</v>
+        <v>0.9843017552819049</v>
       </c>
       <c r="D25">
-        <v>0.07065323669844048</v>
+        <v>0.07065323669822021</v>
       </c>
       <c r="E25">
         <v>0.01780137418074634</v>
       </c>
       <c r="F25">
-        <v>3.230686958306535</v>
+        <v>3.230686958306478</v>
       </c>
       <c r="G25">
-        <v>0.0007749946266080144</v>
+        <v>0.0007749946266741837</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.444273356981995</v>
+        <v>0.4442733569821229</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.149937403450267</v>
+        <v>1.149937403450195</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.130851844130291</v>
+        <v>3.044420539725934</v>
       </c>
       <c r="C2">
-        <v>0.8111032469677468</v>
+        <v>0.5584405786356683</v>
       </c>
       <c r="D2">
-        <v>0.06939121110688973</v>
+        <v>0.02473260188707371</v>
       </c>
       <c r="E2">
-        <v>0.01785111196660072</v>
+        <v>0.06114683526446729</v>
       </c>
       <c r="F2">
-        <v>2.782016439480259</v>
+        <v>0.9449244495135645</v>
       </c>
       <c r="G2">
-        <v>0.0007903094503583936</v>
+        <v>0.88061031554642</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001313158561257799</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5520930437488119</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4884089406314445</v>
       </c>
       <c r="L2">
-        <v>0.3726932731977541</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.184564965419298</v>
+        <v>0.3850043833982255</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.6765313879403294</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.446284463628842</v>
+        <v>2.64749424208668</v>
       </c>
       <c r="C3">
-        <v>0.6971631324287557</v>
+        <v>0.4911241270234541</v>
       </c>
       <c r="D3">
-        <v>0.06897445523091505</v>
+        <v>0.02374000600938686</v>
       </c>
       <c r="E3">
-        <v>0.01792258461102625</v>
+        <v>0.05671822001629767</v>
       </c>
       <c r="F3">
-        <v>2.49528102785807</v>
+        <v>0.8575321348834848</v>
       </c>
       <c r="G3">
-        <v>0.0008009458266801681</v>
+        <v>0.7972091739987519</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0003392259254080265</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5186544549324736</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4655166901699843</v>
       </c>
       <c r="L3">
-        <v>0.3260646108690679</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.213139730429916</v>
+        <v>0.3388911020923757</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.706672096375474</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.035517054002298</v>
+        <v>2.40439276598255</v>
       </c>
       <c r="C4">
-        <v>0.6284855725770058</v>
+        <v>0.4498632708510684</v>
       </c>
       <c r="D4">
-        <v>0.06890339217526531</v>
+        <v>0.02311656142778418</v>
       </c>
       <c r="E4">
-        <v>0.01798366161292808</v>
+        <v>0.05400148629267054</v>
       </c>
       <c r="F4">
-        <v>2.326245066443931</v>
+        <v>0.8052347850757968</v>
       </c>
       <c r="G4">
-        <v>0.0008076246986246559</v>
+        <v>0.7473404013832834</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5.083853598875088E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4989050464668026</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4522337267979637</v>
       </c>
       <c r="L4">
-        <v>0.298182519582241</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.232908089793938</v>
+        <v>0.3106361598782996</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.7259496418716118</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.870201743814391</v>
+        <v>2.305443957789805</v>
       </c>
       <c r="C5">
-        <v>0.6007670365725062</v>
+        <v>0.4330579974710531</v>
       </c>
       <c r="D5">
-        <v>0.06891678465424178</v>
+        <v>0.02285905314895587</v>
       </c>
       <c r="E5">
-        <v>0.01801268566876457</v>
+        <v>0.05289335260968908</v>
       </c>
       <c r="F5">
-        <v>2.258925308176728</v>
+        <v>0.7842387146853014</v>
       </c>
       <c r="G5">
-        <v>0.0008103864265537331</v>
+        <v>0.7273278100264804</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>5.958087624158281E-06</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4910409069287738</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.447002922109597</v>
       </c>
       <c r="L5">
-        <v>0.2869847154054099</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241483710760107</v>
+        <v>0.2991312355308366</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7339934342519676</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.842867661704076</v>
+        <v>2.289019610204491</v>
       </c>
       <c r="C6">
-        <v>0.5961791080059129</v>
+        <v>0.4302677726905415</v>
       </c>
       <c r="D6">
-        <v>0.06892145434007801</v>
+        <v>0.02281608772892341</v>
       </c>
       <c r="E6">
-        <v>0.01801774968409786</v>
+        <v>0.05270923811430794</v>
       </c>
       <c r="F6">
-        <v>2.247835847454496</v>
+        <v>0.7807706296896697</v>
       </c>
       <c r="G6">
-        <v>0.0008108475038959079</v>
+        <v>0.7240226391373028</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.745095156519994E-06</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4897458203370633</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4461450035017762</v>
       </c>
       <c r="L6">
-        <v>0.2851346068205061</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.242938013166764</v>
+        <v>0.2972212490035844</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7353402922458372</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.033279559032167</v>
+        <v>2.403057881338384</v>
       </c>
       <c r="C7">
-        <v>0.6281107327346547</v>
+        <v>0.4496366048847733</v>
       </c>
       <c r="D7">
-        <v>0.06890340643358428</v>
+        <v>0.02311310245891463</v>
       </c>
       <c r="E7">
-        <v>0.01798403653466885</v>
+        <v>0.05398654796261582</v>
       </c>
       <c r="F7">
-        <v>2.32533108881897</v>
+        <v>0.8049503817413211</v>
       </c>
       <c r="G7">
-        <v>0.0008076617786719536</v>
+        <v>0.7470692874664877</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.994586199025264E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4987982596504139</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.452162460720821</v>
       </c>
       <c r="L7">
-        <v>0.2980308661964699</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.233021687651373</v>
+        <v>0.3104809703988138</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.726057369392386</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.892620423582684</v>
+        <v>2.907409996141553</v>
       </c>
       <c r="C8">
-        <v>0.7715160557287675</v>
+        <v>0.535209257644425</v>
       </c>
       <c r="D8">
-        <v>0.06920652051998388</v>
+        <v>0.02439329811285518</v>
       </c>
       <c r="E8">
-        <v>0.01787206732181179</v>
+        <v>0.0596183102550869</v>
       </c>
       <c r="F8">
-        <v>2.681564842712135</v>
+        <v>0.9144922372444029</v>
       </c>
       <c r="G8">
-        <v>0.0007939479063614165</v>
+        <v>0.8515584279792137</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0009098720683182737</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5403932179152804</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4803476797307908</v>
       </c>
       <c r="L8">
-        <v>0.356445370183053</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.193931168763825</v>
+        <v>0.3690888511358992</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.6867602600440605</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.670497487014643</v>
+        <v>3.903143462798823</v>
       </c>
       <c r="C9">
-        <v>1.065705974593584</v>
+        <v>0.7040380964369888</v>
       </c>
       <c r="D9">
-        <v>0.07148146282983703</v>
+        <v>0.02678986060207222</v>
       </c>
       <c r="E9">
-        <v>0.01779865792082891</v>
+        <v>0.07076173885682202</v>
       </c>
       <c r="F9">
-        <v>3.446192023791781</v>
+        <v>1.14140804880563</v>
       </c>
       <c r="G9">
-        <v>0.0007680874459258702</v>
+        <v>1.068421963760557</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005300427422200271</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6287798033780945</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5423401113738748</v>
       </c>
       <c r="L9">
-        <v>0.4781495343503366</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.136926902128849</v>
+        <v>0.4847574001281316</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6160947400057282</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.060517371706396</v>
+        <v>4.615649101921178</v>
       </c>
       <c r="C10">
-        <v>1.294309444432258</v>
+        <v>0.8337343294111292</v>
       </c>
       <c r="D10">
-        <v>0.07452865136018971</v>
+        <v>0.02899955697439083</v>
       </c>
       <c r="E10">
-        <v>0.01784975698849678</v>
+        <v>0.07683124118176465</v>
       </c>
       <c r="F10">
-        <v>4.064971354801315</v>
+        <v>1.302820254002285</v>
       </c>
       <c r="G10">
-        <v>0.0007494875810489381</v>
+        <v>1.220485574687302</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.01042020715394187</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6905873867748369</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5830434537863667</v>
       </c>
       <c r="L10">
-        <v>0.5738937327555078</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.110282342682595</v>
+        <v>0.5490815924432582</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.5714277080118642</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.718478637988596</v>
+        <v>4.714374394102606</v>
       </c>
       <c r="C11">
-        <v>1.402257386624512</v>
+        <v>0.9324820194276526</v>
       </c>
       <c r="D11">
-        <v>0.07631120988648377</v>
+        <v>0.03517723472470635</v>
       </c>
       <c r="E11">
-        <v>0.0179002061308946</v>
+        <v>0.06610508292616091</v>
       </c>
       <c r="F11">
-        <v>4.363395441317124</v>
+        <v>1.25228525402639</v>
       </c>
       <c r="G11">
-        <v>0.000741050957612903</v>
+        <v>1.149942905379959</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02928926668997889</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6493700550541348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5197455671764857</v>
       </c>
       <c r="L11">
-        <v>0.6193567232047599</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.102359187513287</v>
+        <v>0.4066519787110394</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5849793114740862</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.972066111498066</v>
+        <v>4.643778756019685</v>
       </c>
       <c r="C12">
-        <v>1.443829756404682</v>
+        <v>0.9904176092016428</v>
       </c>
       <c r="D12">
-        <v>0.07705331460915943</v>
+        <v>0.04080668630188455</v>
       </c>
       <c r="E12">
-        <v>0.01792367424290742</v>
+        <v>0.06443730673092052</v>
       </c>
       <c r="F12">
-        <v>4.47929717784865</v>
+        <v>1.175442688214815</v>
       </c>
       <c r="G12">
-        <v>0.0007378535341140417</v>
+        <v>1.059452192941194</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06748883232352654</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6018460561214027</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.460109380247296</v>
       </c>
       <c r="L12">
-        <v>0.6369005004166297</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.100053434318099</v>
+        <v>0.2930512332525552</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.6149679878452901</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.917241098791465</v>
+        <v>4.439363698150942</v>
       </c>
       <c r="C13">
-        <v>1.434843242414274</v>
+        <v>1.019545536813041</v>
       </c>
       <c r="D13">
-        <v>0.07689032341392021</v>
+        <v>0.04625164484505717</v>
       </c>
       <c r="E13">
-        <v>0.01791841773638581</v>
+        <v>0.06943052626546375</v>
       </c>
       <c r="F13">
-        <v>4.454198707979685</v>
+        <v>1.073851848876984</v>
       </c>
       <c r="G13">
-        <v>0.000738542385009437</v>
+        <v>0.9484218424785382</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1221085735028709</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5466820843718523</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3998372404146693</v>
       </c>
       <c r="L13">
-        <v>0.6331065959721656</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.10051750075958</v>
+        <v>0.1957836418668748</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.6578549179197211</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.739247867133827</v>
+        <v>4.236960645893078</v>
       </c>
       <c r="C14">
-        <v>1.405662840342359</v>
+        <v>1.026867224064262</v>
       </c>
       <c r="D14">
-        <v>0.07637085393266574</v>
+        <v>0.05003244395745554</v>
       </c>
       <c r="E14">
-        <v>0.01790204650497262</v>
+        <v>0.07697759092977918</v>
       </c>
       <c r="F14">
-        <v>4.372869802631413</v>
+        <v>0.9923959312588408</v>
       </c>
       <c r="G14">
-        <v>0.0007407879962865073</v>
+        <v>0.8624991754831939</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1704417680492156</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5051008618564907</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3581298352746032</v>
       </c>
       <c r="L14">
-        <v>0.620793148149005</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.102154991349536</v>
+        <v>0.1384711038806046</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.6942346537940622</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.630823405364026</v>
+        <v>4.159964138244277</v>
       </c>
       <c r="C15">
-        <v>1.387883622516711</v>
+        <v>1.022152136091449</v>
       </c>
       <c r="D15">
-        <v>0.0760617334836553</v>
+        <v>0.0507811061263439</v>
       </c>
       <c r="E15">
-        <v>0.01789260187201336</v>
+        <v>0.07906907774453131</v>
       </c>
       <c r="F15">
-        <v>4.323445538627084</v>
+        <v>0.9674422272470338</v>
       </c>
       <c r="G15">
-        <v>0.0007421629499138049</v>
+        <v>0.8372072703833879</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1825146938404316</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4933775129435247</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3475995235888334</v>
       </c>
       <c r="L15">
-        <v>0.6132952588687743</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.103251436002481</v>
+        <v>0.1255335048292068</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7044211990017644</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.018094715477901</v>
+        <v>3.899539596938155</v>
       </c>
       <c r="C16">
-        <v>1.287344651213289</v>
+        <v>0.9586032989515729</v>
       </c>
       <c r="D16">
-        <v>0.07442095269227877</v>
+        <v>0.04848371402505336</v>
       </c>
       <c r="E16">
-        <v>0.01784704420329586</v>
+        <v>0.07518246064602963</v>
       </c>
       <c r="F16">
-        <v>4.045846944800729</v>
+        <v>0.9195112781496562</v>
       </c>
       <c r="G16">
-        <v>0.0007500389231238704</v>
+        <v>0.795578176507334</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1677442047635083</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4783914907038707</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3428628536771896</v>
       </c>
       <c r="L16">
-        <v>0.5709653894384843</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.110892019004197</v>
+        <v>0.1211755939650914</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7107629052065434</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.649262324461233</v>
+        <v>3.806997072890226</v>
       </c>
       <c r="C17">
-        <v>1.226763118864937</v>
+        <v>0.9062392952721723</v>
       </c>
       <c r="D17">
-        <v>0.07352250873335464</v>
+        <v>0.04469115200458162</v>
       </c>
       <c r="E17">
-        <v>0.01782635995617277</v>
+        <v>0.06749720073119647</v>
       </c>
       <c r="F17">
-        <v>3.880190007010867</v>
+        <v>0.9259400139582681</v>
       </c>
       <c r="G17">
-        <v>0.0007548727846453531</v>
+        <v>0.8090320329310003</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1289709135309351</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4889222186651807</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3611184071558498</v>
       </c>
       <c r="L17">
-        <v>0.5455214676926516</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.116714197321969</v>
+        <v>0.1458217625629388</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6964401163814102</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.439481030625473</v>
+        <v>3.84716451875596</v>
       </c>
       <c r="C18">
-        <v>1.19228175868102</v>
+        <v>0.8581226151142403</v>
       </c>
       <c r="D18">
-        <v>0.0730423522526138</v>
+        <v>0.03956733071080976</v>
       </c>
       <c r="E18">
-        <v>0.01781699201425546</v>
+        <v>0.05979183369135477</v>
       </c>
       <c r="F18">
-        <v>3.786471104526669</v>
+        <v>0.9800380013018923</v>
       </c>
       <c r="G18">
-        <v>0.0007576558310142248</v>
+        <v>0.8722539420331401</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07600422711416144</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5229014680338935</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4025798569614238</v>
       </c>
       <c r="L18">
-        <v>0.5310627438249185</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.12045176016936</v>
+        <v>0.2085050430854309</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.6666855077645195</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.368837576369174</v>
+        <v>3.991591273601614</v>
       </c>
       <c r="C19">
-        <v>1.180665913968085</v>
+        <v>0.8177856935313059</v>
       </c>
       <c r="D19">
-        <v>0.07288578912170607</v>
+        <v>0.03427312999996346</v>
       </c>
       <c r="E19">
-        <v>0.01781424210876281</v>
+        <v>0.05873896522861077</v>
       </c>
       <c r="F19">
-        <v>3.754995139757114</v>
+        <v>1.070119230616243</v>
       </c>
       <c r="G19">
-        <v>0.0007585987643776715</v>
+        <v>0.9735354301562467</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03153640351045794</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5743811655217428</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4623421180123586</v>
       </c>
       <c r="L19">
-        <v>0.5261960024613899</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121781494770445</v>
+        <v>0.3132152968857298</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6322916183901128</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.688275777903243</v>
+        <v>4.426977942466237</v>
       </c>
       <c r="C20">
-        <v>1.233173659435863</v>
+        <v>0.7997270009206829</v>
       </c>
       <c r="D20">
-        <v>0.07361429409721154</v>
+        <v>0.02844320190856209</v>
       </c>
       <c r="E20">
-        <v>0.0178282970665693</v>
+        <v>0.07511644898310266</v>
       </c>
       <c r="F20">
-        <v>3.897659673746375</v>
+        <v>1.259134159103169</v>
       </c>
       <c r="G20">
-        <v>0.0007543579701523493</v>
+        <v>1.179176947570738</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.008902467729200669</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6736421356290805</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5715798415444198</v>
       </c>
       <c r="L20">
-        <v>0.548211448124718</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.116053569048816</v>
+        <v>0.5312467429317564</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.582916326668574</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.791401912608649</v>
+        <v>5.016761968429989</v>
       </c>
       <c r="C21">
-        <v>1.414213854355353</v>
+        <v>0.8931678007824928</v>
       </c>
       <c r="D21">
-        <v>0.07652152376346066</v>
+        <v>0.02930967229217885</v>
       </c>
       <c r="E21">
-        <v>0.01790673265826115</v>
+        <v>0.0834307791062443</v>
       </c>
       <c r="F21">
-        <v>4.396675434610302</v>
+        <v>1.409128150705726</v>
       </c>
       <c r="G21">
-        <v>0.0007401285326853725</v>
+        <v>1.324968758447454</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.01378315397922858</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7356364715953703</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6198269539257311</v>
       </c>
       <c r="L21">
-        <v>0.6244005332216886</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.101654362732162</v>
+        <v>0.6142442691919001</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5456445264185739</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.538638567607336</v>
+        <v>5.391279378673175</v>
       </c>
       <c r="C22">
-        <v>1.53666037117631</v>
+        <v>0.9569207205304906</v>
       </c>
       <c r="D22">
-        <v>0.07881880561024701</v>
+        <v>0.03012535720005971</v>
       </c>
       <c r="E22">
-        <v>0.01798370863311316</v>
+        <v>0.08776425205203964</v>
       </c>
       <c r="F22">
-        <v>4.739961639970232</v>
+        <v>1.502088494263873</v>
       </c>
       <c r="G22">
-        <v>0.0007308095761850537</v>
+        <v>1.414214871005015</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01739243326477791</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7732207311835566</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6475712311673547</v>
       </c>
       <c r="L22">
-        <v>0.6761379686066391</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.096347100521527</v>
+        <v>0.6578447441025759</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.523675425136652</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.137137087570522</v>
+        <v>5.191169038588157</v>
       </c>
       <c r="C23">
-        <v>1.470882822101203</v>
+        <v>0.9228455161443208</v>
       </c>
       <c r="D23">
-        <v>0.07755248429392481</v>
+        <v>0.02969136493051749</v>
       </c>
       <c r="E23">
-        <v>0.01794009925667961</v>
+        <v>0.08544367562277522</v>
       </c>
       <c r="F23">
-        <v>4.554999871030986</v>
+        <v>1.452243931771193</v>
       </c>
       <c r="G23">
-        <v>0.0007357873769608309</v>
+        <v>1.366351506980834</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01541864610388055</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7530414271865027</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6326472284200619</v>
       </c>
       <c r="L23">
-        <v>0.6483266573874005</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.098769638850342</v>
+        <v>0.6345445135942924</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5353130068712915</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.6706307940035</v>
+        <v>4.437827487697348</v>
       </c>
       <c r="C24">
-        <v>1.230274380008439</v>
+        <v>0.7947763708919524</v>
       </c>
       <c r="D24">
-        <v>0.07357268538292772</v>
+        <v>0.02801839807576556</v>
       </c>
       <c r="E24">
-        <v>0.01782741347082339</v>
+        <v>0.07680822992874603</v>
       </c>
       <c r="F24">
-        <v>3.889756938170621</v>
+        <v>1.268261663133842</v>
       </c>
       <c r="G24">
-        <v>0.0007545907048783723</v>
+        <v>1.189891439427328</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.008937993157641239</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6791284139967502</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5785667935436081</v>
       </c>
       <c r="L24">
-        <v>0.5469947844662784</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.116351030021008</v>
+        <v>0.5469024165815455</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.5812603095324391</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.177029123619207</v>
+        <v>3.632776367229098</v>
       </c>
       <c r="C25">
-        <v>0.9843017552819049</v>
+        <v>0.6581882536985404</v>
       </c>
       <c r="D25">
-        <v>0.07065323669822021</v>
+        <v>0.02615411843299853</v>
       </c>
       <c r="E25">
-        <v>0.01780137418074634</v>
+        <v>0.06772465825923391</v>
       </c>
       <c r="F25">
-        <v>3.230686958306478</v>
+        <v>1.078533432908557</v>
       </c>
       <c r="G25">
-        <v>0.0007749946266741837</v>
+        <v>1.008277704637663</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003786960447916599</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6040481529919219</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.524763348032053</v>
       </c>
       <c r="L25">
-        <v>0.4442733569821229</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.149937403450195</v>
+        <v>0.4533462978707661</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6344864084697619</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.044420539725934</v>
+        <v>2.874674634575911</v>
       </c>
       <c r="C2">
-        <v>0.5584405786356683</v>
+        <v>0.601270754631031</v>
       </c>
       <c r="D2">
-        <v>0.02473260188707371</v>
+        <v>0.02823074935876946</v>
       </c>
       <c r="E2">
-        <v>0.06114683526446729</v>
+        <v>0.05663358933935037</v>
       </c>
       <c r="F2">
-        <v>0.9449244495135645</v>
+        <v>0.8562662715340537</v>
       </c>
       <c r="G2">
-        <v>0.88061031554642</v>
+        <v>0.7587880119721433</v>
       </c>
       <c r="H2">
-        <v>0.001313158561257799</v>
+        <v>0.001181020300581759</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5520930437488119</v>
+        <v>0.55037664096686</v>
       </c>
       <c r="K2">
-        <v>0.4884089406314445</v>
+        <v>0.4201179534255175</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.217742613489385</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1123665097310287</v>
       </c>
       <c r="N2">
-        <v>0.3850043833982255</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6765313879403294</v>
+        <v>0.3916710354649098</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.6925093740676189</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.64749424208668</v>
+        <v>2.509169530533654</v>
       </c>
       <c r="C3">
-        <v>0.4911241270234541</v>
+        <v>0.5245493191637536</v>
       </c>
       <c r="D3">
-        <v>0.02374000600938686</v>
+        <v>0.02631798115892181</v>
       </c>
       <c r="E3">
-        <v>0.05671822001629767</v>
+        <v>0.05302263408166041</v>
       </c>
       <c r="F3">
-        <v>0.8575321348834848</v>
+        <v>0.7825537001563845</v>
       </c>
       <c r="G3">
-        <v>0.7972091739987519</v>
+        <v>0.6909136151635238</v>
       </c>
       <c r="H3">
-        <v>0.0003392259254080265</v>
+        <v>0.0003416891852177084</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5186544549324736</v>
+        <v>0.520911348549177</v>
       </c>
       <c r="K3">
-        <v>0.4655166901699843</v>
+        <v>0.4056147530725767</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2188779250214026</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1006605973876233</v>
       </c>
       <c r="N3">
-        <v>0.3388911020923757</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.706672096375474</v>
+        <v>0.3455423282990893</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7140439952477351</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.40439276598255</v>
+        <v>2.284644667345731</v>
       </c>
       <c r="C4">
-        <v>0.4498632708510684</v>
+        <v>0.4776135315632928</v>
       </c>
       <c r="D4">
-        <v>0.02311656142778418</v>
+        <v>0.02513609241747616</v>
       </c>
       <c r="E4">
-        <v>0.05400148629267054</v>
+        <v>0.05079815150664313</v>
       </c>
       <c r="F4">
-        <v>0.8052347850757968</v>
+        <v>0.7382586421199022</v>
       </c>
       <c r="G4">
-        <v>0.7473404013832834</v>
+        <v>0.6503718969023282</v>
       </c>
       <c r="H4">
-        <v>5.083853598875088E-05</v>
+        <v>7.076893153001862E-05</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4989050464668026</v>
+        <v>0.5031230222610645</v>
       </c>
       <c r="K4">
-        <v>0.4522337267979637</v>
+        <v>0.3972150698955161</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2195884614144425</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.09437213401015754</v>
       </c>
       <c r="N4">
-        <v>0.3106361598782996</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7259496418716118</v>
+        <v>0.3172591736713315</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7280494681503917</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.305443957789805</v>
+        <v>2.193098680044727</v>
       </c>
       <c r="C5">
-        <v>0.4330579974710531</v>
+        <v>0.4585210618846247</v>
       </c>
       <c r="D5">
-        <v>0.02285905314895587</v>
+        <v>0.02465260716459383</v>
       </c>
       <c r="E5">
-        <v>0.05289335260968908</v>
+        <v>0.04988857049413831</v>
       </c>
       <c r="F5">
-        <v>0.7842387146853014</v>
+        <v>0.7204303238301009</v>
       </c>
       <c r="G5">
-        <v>0.7273278100264804</v>
+        <v>0.6341114312546097</v>
       </c>
       <c r="H5">
-        <v>5.958087624158281E-06</v>
+        <v>1.78542559621242E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4910409069287738</v>
+        <v>0.4959444296817139</v>
       </c>
       <c r="K5">
-        <v>0.447002922109597</v>
+        <v>0.393910842938471</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2198807089308552</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0920292308556121</v>
       </c>
       <c r="N5">
-        <v>0.2991312355308366</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7339934342519676</v>
+        <v>0.3057392935649119</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7339488884529928</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.289019610204491</v>
+        <v>2.1778938192856</v>
       </c>
       <c r="C6">
-        <v>0.4302677726905415</v>
+        <v>0.4553525910194196</v>
       </c>
       <c r="D6">
-        <v>0.02281608772892341</v>
+        <v>0.0245722132126609</v>
       </c>
       <c r="E6">
-        <v>0.05270923811430794</v>
+        <v>0.04973731382071644</v>
       </c>
       <c r="F6">
-        <v>0.7807706296896697</v>
+        <v>0.7174827947099303</v>
       </c>
       <c r="G6">
-        <v>0.7240226391373028</v>
+        <v>0.6314264426970908</v>
       </c>
       <c r="H6">
-        <v>2.745095156519994E-06</v>
+        <v>1.242674446877423E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4897458203370633</v>
+        <v>0.4947565051127469</v>
       </c>
       <c r="K6">
-        <v>0.4461450035017762</v>
+        <v>0.3933691113184281</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2199293799269384</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09165328292821684</v>
       </c>
       <c r="N6">
-        <v>0.2972212490035844</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7353402922458372</v>
+        <v>0.3038266499476947</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7349399472631006</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.403057881338384</v>
+        <v>2.281207219652515</v>
       </c>
       <c r="C7">
-        <v>0.4496366048847733</v>
+        <v>0.4762839356789641</v>
       </c>
       <c r="D7">
-        <v>0.02311310245891463</v>
+        <v>0.02520404588112868</v>
       </c>
       <c r="E7">
-        <v>0.05398654796261582</v>
+        <v>0.0508080628933536</v>
       </c>
       <c r="F7">
-        <v>0.8049503817413211</v>
+        <v>0.7362488932384821</v>
       </c>
       <c r="G7">
-        <v>0.7470692874664877</v>
+        <v>0.6540340587593363</v>
       </c>
       <c r="H7">
-        <v>4.994586199025264E-05</v>
+        <v>6.895933686568156E-05</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4987982596504139</v>
+        <v>0.4958440842902263</v>
       </c>
       <c r="K7">
-        <v>0.452162460720821</v>
+        <v>0.3963525632092022</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2192230441384346</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09408922996482261</v>
       </c>
       <c r="N7">
-        <v>0.3104809703988138</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.726057369392386</v>
+        <v>0.3169518388025523</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7284302116416406</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.907409996141553</v>
+        <v>2.741261283629001</v>
       </c>
       <c r="C8">
-        <v>0.535209257644425</v>
+        <v>0.5711627273000488</v>
       </c>
       <c r="D8">
-        <v>0.02439329811285518</v>
+        <v>0.02782943114413783</v>
       </c>
       <c r="E8">
-        <v>0.0596183102550869</v>
+        <v>0.05546508553638674</v>
       </c>
       <c r="F8">
-        <v>0.9144922372444029</v>
+        <v>0.8247506384182373</v>
       </c>
       <c r="G8">
-        <v>0.8515584279792137</v>
+        <v>0.7481355467654112</v>
       </c>
       <c r="H8">
-        <v>0.0009098720683182737</v>
+        <v>0.000829048650128783</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5403932179152804</v>
+        <v>0.5164897517129674</v>
       </c>
       <c r="K8">
-        <v>0.4803476797307908</v>
+        <v>0.4123105569405041</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2169917300888464</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1072332264120028</v>
       </c>
       <c r="N8">
-        <v>0.3690888511358992</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6867602600440605</v>
+        <v>0.3752460546194953</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7008909661099523</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.903143462798823</v>
+        <v>3.65180537526328</v>
       </c>
       <c r="C9">
-        <v>0.7040380964369888</v>
+        <v>0.7628961878796758</v>
       </c>
       <c r="D9">
-        <v>0.02678986060207222</v>
+        <v>0.03264679092416856</v>
       </c>
       <c r="E9">
-        <v>0.07076173885682202</v>
+        <v>0.06451690817664169</v>
       </c>
       <c r="F9">
-        <v>1.14140804880563</v>
+        <v>1.013342796199012</v>
       </c>
       <c r="G9">
-        <v>1.068421963760557</v>
+        <v>0.9286463059287797</v>
       </c>
       <c r="H9">
-        <v>0.005300427422200271</v>
+        <v>0.004447247138082533</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6287798033780945</v>
+        <v>0.5853363469307595</v>
       </c>
       <c r="K9">
-        <v>0.5423401113738748</v>
+        <v>0.4509773266453436</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2141038775402606</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1413470094653313</v>
       </c>
       <c r="N9">
-        <v>0.4847574001281316</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6160947400057282</v>
+        <v>0.4906392475504475</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6522350661225147</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.615649101921178</v>
+        <v>4.287451380653806</v>
       </c>
       <c r="C10">
-        <v>0.8337343294111292</v>
+        <v>0.9026304952633382</v>
       </c>
       <c r="D10">
-        <v>0.02899955697439083</v>
+        <v>0.03724307958651352</v>
       </c>
       <c r="E10">
-        <v>0.07683124118176465</v>
+        <v>0.06939965939619608</v>
       </c>
       <c r="F10">
-        <v>1.302820254002285</v>
+        <v>1.135977126235773</v>
       </c>
       <c r="G10">
-        <v>1.220485574687302</v>
+        <v>1.078809465510176</v>
       </c>
       <c r="H10">
-        <v>0.01042020715394187</v>
+        <v>0.00855512547045878</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6905873867748369</v>
+        <v>0.5908272597140041</v>
       </c>
       <c r="K10">
-        <v>0.5830434537863667</v>
+        <v>0.4703855418115879</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2077257297986037</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1664468888212269</v>
       </c>
       <c r="N10">
-        <v>0.5490815924432582</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5714277080118642</v>
+        <v>0.5534421920810075</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6274339106095113</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.714374394102606</v>
+        <v>4.361386788592256</v>
       </c>
       <c r="C11">
-        <v>0.9324820194276526</v>
+        <v>0.9881140545449796</v>
       </c>
       <c r="D11">
-        <v>0.03517723472470635</v>
+        <v>0.0462168960111029</v>
       </c>
       <c r="E11">
-        <v>0.06610508292616091</v>
+        <v>0.06049853076770484</v>
       </c>
       <c r="F11">
-        <v>1.25228525402639</v>
+        <v>1.071338083150025</v>
       </c>
       <c r="G11">
-        <v>1.149942905379959</v>
+        <v>1.069184614378997</v>
       </c>
       <c r="H11">
-        <v>0.02928926668997889</v>
+        <v>0.02716295483504894</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6493700550541348</v>
+        <v>0.4774470342339754</v>
       </c>
       <c r="K11">
-        <v>0.5197455671764857</v>
+        <v>0.4089824837142899</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1802713364729769</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1494899115874446</v>
       </c>
       <c r="N11">
-        <v>0.4066519787110394</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5849793114740862</v>
+        <v>0.4075808286839475</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6663420708779739</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.643778756019685</v>
+        <v>4.295184740452896</v>
       </c>
       <c r="C12">
-        <v>0.9904176092016428</v>
+        <v>1.035892181596978</v>
       </c>
       <c r="D12">
-        <v>0.04080668630188455</v>
+        <v>0.05342681957501583</v>
       </c>
       <c r="E12">
-        <v>0.06443730673092052</v>
+        <v>0.06007851894557925</v>
       </c>
       <c r="F12">
-        <v>1.175442688214815</v>
+        <v>0.9979268530510552</v>
       </c>
       <c r="G12">
-        <v>1.059452192941194</v>
+        <v>1.013851803544043</v>
       </c>
       <c r="H12">
-        <v>0.06748883232352654</v>
+        <v>0.06537540540681164</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6018460561214027</v>
+        <v>0.4101657512737091</v>
       </c>
       <c r="K12">
-        <v>0.460109380247296</v>
+        <v>0.3585986783322852</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1609285496004489</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1314481343602054</v>
       </c>
       <c r="N12">
-        <v>0.2930512332525552</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6149679878452901</v>
+        <v>0.2923310673491386</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7117688275785667</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.439363698150942</v>
+        <v>4.123330850558261</v>
       </c>
       <c r="C13">
-        <v>1.019545536813041</v>
+        <v>1.060316019152509</v>
       </c>
       <c r="D13">
-        <v>0.04625164484505717</v>
+        <v>0.05905639979933852</v>
       </c>
       <c r="E13">
-        <v>0.06943052626546375</v>
+        <v>0.06624423706002425</v>
       </c>
       <c r="F13">
-        <v>1.073851848876984</v>
+        <v>0.9167407829100966</v>
       </c>
       <c r="G13">
-        <v>0.9484218424785382</v>
+        <v>0.9114098772277401</v>
       </c>
       <c r="H13">
-        <v>0.1221085735028709</v>
+        <v>0.1202329916283276</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5466820843718523</v>
+        <v>0.3804543731463781</v>
       </c>
       <c r="K13">
-        <v>0.3998372404146693</v>
+        <v>0.3144699917751979</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1462292894186064</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.112381539493807</v>
       </c>
       <c r="N13">
-        <v>0.1957836418668748</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6578549179197211</v>
+        <v>0.194601547679575</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7596597993379532</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.236960645893078</v>
+        <v>3.955507985559677</v>
       </c>
       <c r="C14">
-        <v>1.026867224064262</v>
+        <v>1.066853845664923</v>
       </c>
       <c r="D14">
-        <v>0.05003244395745554</v>
+        <v>0.06222957727292311</v>
       </c>
       <c r="E14">
-        <v>0.07697759092977918</v>
+        <v>0.07468616755534718</v>
       </c>
       <c r="F14">
-        <v>0.9923959312588408</v>
+        <v>0.8562254307825583</v>
       </c>
       <c r="G14">
-        <v>0.8624991754831939</v>
+        <v>0.8211918956980782</v>
       </c>
       <c r="H14">
-        <v>0.1704417680492156</v>
+        <v>0.1688125804019904</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5051008618564907</v>
+        <v>0.3737212489838839</v>
       </c>
       <c r="K14">
-        <v>0.3581298352746032</v>
+        <v>0.2863479239020172</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.13775652191703</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.09882994574862281</v>
       </c>
       <c r="N14">
-        <v>0.1384711038806046</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6942346537940622</v>
+        <v>0.13730660454803</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7938608133982825</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.159964138244277</v>
+        <v>3.892154464841838</v>
       </c>
       <c r="C15">
-        <v>1.022152136091449</v>
+        <v>1.063040164503775</v>
       </c>
       <c r="D15">
-        <v>0.0507811061263439</v>
+        <v>0.06252537802858171</v>
       </c>
       <c r="E15">
-        <v>0.07906907774453131</v>
+        <v>0.0770806358609164</v>
       </c>
       <c r="F15">
-        <v>0.9674422272470338</v>
+        <v>0.8393174796503615</v>
       </c>
       <c r="G15">
-        <v>0.8372072703833879</v>
+        <v>0.7908185017759592</v>
       </c>
       <c r="H15">
-        <v>0.1825146938404316</v>
+        <v>0.1809921942412416</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4933775129435247</v>
+        <v>0.3778859432490691</v>
       </c>
       <c r="K15">
-        <v>0.3475995235888334</v>
+        <v>0.2802235643869686</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1363225976678777</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.09522029906535323</v>
       </c>
       <c r="N15">
-        <v>0.1255335048292068</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7044211990017644</v>
+        <v>0.1244981692578051</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8012310342521687</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.899539596938155</v>
+        <v>3.677281286309608</v>
       </c>
       <c r="C16">
-        <v>0.9586032989515729</v>
+        <v>1.007746255296212</v>
       </c>
       <c r="D16">
-        <v>0.04848371402505336</v>
+        <v>0.05779018491731591</v>
       </c>
       <c r="E16">
-        <v>0.07518246064602963</v>
+        <v>0.07391788673984401</v>
       </c>
       <c r="F16">
-        <v>0.9195112781496562</v>
+        <v>0.8171494064981601</v>
       </c>
       <c r="G16">
-        <v>0.795578176507334</v>
+        <v>0.7167201581244171</v>
       </c>
       <c r="H16">
-        <v>0.1677442047635083</v>
+        <v>0.1666708141561486</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4783914907038707</v>
+        <v>0.4282291714145003</v>
       </c>
       <c r="K16">
-        <v>0.3428628536771896</v>
+        <v>0.2856846131105932</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1420677141150541</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0915132282893012</v>
       </c>
       <c r="N16">
-        <v>0.1211755939650914</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7107629052065434</v>
+        <v>0.1213310045889955</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7893177550618304</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.806997072890226</v>
+        <v>3.598112911393116</v>
       </c>
       <c r="C17">
-        <v>0.9062392952721723</v>
+        <v>0.9598622127971055</v>
       </c>
       <c r="D17">
-        <v>0.04469115200458162</v>
+        <v>0.05281227605640026</v>
       </c>
       <c r="E17">
-        <v>0.06749720073119647</v>
+        <v>0.06608813467563834</v>
       </c>
       <c r="F17">
-        <v>0.9259400139582681</v>
+        <v>0.830398188085482</v>
       </c>
       <c r="G17">
-        <v>0.8090320329310003</v>
+        <v>0.7119912475690882</v>
       </c>
       <c r="H17">
-        <v>0.1289709135309351</v>
+        <v>0.1280927867289279</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4889222186651807</v>
+        <v>0.4652498189154954</v>
       </c>
       <c r="K17">
-        <v>0.3611184071558498</v>
+        <v>0.3043040042095768</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1511933325077699</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.09536039198110302</v>
       </c>
       <c r="N17">
-        <v>0.1458217625629388</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6964401163814102</v>
+        <v>0.1469662781616918</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7646619306612905</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.84716451875596</v>
+        <v>3.630980922929496</v>
       </c>
       <c r="C18">
-        <v>0.8581226151142403</v>
+        <v>0.9161318092369868</v>
       </c>
       <c r="D18">
-        <v>0.03956733071080976</v>
+        <v>0.04707252983768484</v>
       </c>
       <c r="E18">
-        <v>0.05979183369135477</v>
+        <v>0.05745803335017907</v>
       </c>
       <c r="F18">
-        <v>0.9800380013018923</v>
+        <v>0.8794905397491846</v>
       </c>
       <c r="G18">
-        <v>0.8722539420331401</v>
+        <v>0.7581390080364372</v>
       </c>
       <c r="H18">
-        <v>0.07600422711416144</v>
+        <v>0.07516173608694032</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5229014680338935</v>
+        <v>0.5063313656457495</v>
       </c>
       <c r="K18">
-        <v>0.4025798569614238</v>
+        <v>0.3389196392122926</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1653541544634329</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1068606196609707</v>
       </c>
       <c r="N18">
-        <v>0.2085050430854309</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6666855077645195</v>
+        <v>0.2108539017962414</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7276326140422995</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.991591273601614</v>
+        <v>3.753776606187671</v>
       </c>
       <c r="C19">
-        <v>0.8177856935313059</v>
+        <v>0.8807194606368114</v>
       </c>
       <c r="D19">
-        <v>0.03427312999996346</v>
+        <v>0.04142601931899748</v>
       </c>
       <c r="E19">
-        <v>0.05873896522861077</v>
+        <v>0.0548019711465958</v>
       </c>
       <c r="F19">
-        <v>1.070119230616243</v>
+        <v>0.9564142958918893</v>
       </c>
       <c r="G19">
-        <v>0.9735354301562467</v>
+        <v>0.8407053634651618</v>
       </c>
       <c r="H19">
-        <v>0.03153640351045794</v>
+        <v>0.03058451552085728</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5743811655217428</v>
+        <v>0.5533296707795046</v>
       </c>
       <c r="K19">
-        <v>0.4623421180123586</v>
+        <v>0.3864058776317094</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1834146045257476</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1246801790106851</v>
       </c>
       <c r="N19">
-        <v>0.3132152968857298</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6322916183901128</v>
+        <v>0.3169785288384759</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6869070213226323</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.426977942466237</v>
+        <v>4.127701550467975</v>
       </c>
       <c r="C20">
-        <v>0.7997270009206829</v>
+        <v>0.8700057573038009</v>
       </c>
       <c r="D20">
-        <v>0.02844320190856209</v>
+        <v>0.03575038632638083</v>
       </c>
       <c r="E20">
-        <v>0.07511644898310266</v>
+        <v>0.06793516281196865</v>
       </c>
       <c r="F20">
-        <v>1.259134159103169</v>
+        <v>1.10917267335094</v>
       </c>
       <c r="G20">
-        <v>1.179176947570738</v>
+        <v>1.023799546471807</v>
       </c>
       <c r="H20">
-        <v>0.008902467729200669</v>
+        <v>0.007365387343237995</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6736421356290805</v>
+        <v>0.6137385056560305</v>
       </c>
       <c r="K20">
-        <v>0.5715798415444198</v>
+        <v>0.4675846855415102</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2102624758162079</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1605597851456793</v>
       </c>
       <c r="N20">
-        <v>0.5312467429317564</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.582916326668574</v>
+        <v>0.5365709362605742</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6321975906557995</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.016761968429989</v>
+        <v>4.606723361662489</v>
       </c>
       <c r="C21">
-        <v>0.8931678007824928</v>
+        <v>0.9507800857768984</v>
       </c>
       <c r="D21">
-        <v>0.02930967229217885</v>
+        <v>0.04001288041416018</v>
       </c>
       <c r="E21">
-        <v>0.0834307791062443</v>
+        <v>0.07534084566840704</v>
       </c>
       <c r="F21">
-        <v>1.409128150705726</v>
+        <v>1.190548441198416</v>
       </c>
       <c r="G21">
-        <v>1.324968758447454</v>
+        <v>1.242315030952938</v>
       </c>
       <c r="H21">
-        <v>0.01378315397922858</v>
+        <v>0.01106511708297186</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7356364715953703</v>
+        <v>0.5053479386334629</v>
       </c>
       <c r="K21">
-        <v>0.6198269539257311</v>
+        <v>0.4801934641442784</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2044109451714746</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1799131550021471</v>
       </c>
       <c r="N21">
-        <v>0.6142442691919001</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5456445264185739</v>
+        <v>0.6155716614731688</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6166677403906746</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.391279378673175</v>
+        <v>4.905154420449207</v>
       </c>
       <c r="C22">
-        <v>0.9569207205304906</v>
+        <v>1.00400338895588</v>
       </c>
       <c r="D22">
-        <v>0.03012535720005971</v>
+        <v>0.04333691123016337</v>
       </c>
       <c r="E22">
-        <v>0.08776425205203964</v>
+        <v>0.07931036853939766</v>
       </c>
       <c r="F22">
-        <v>1.502088494263873</v>
+        <v>1.236100063426392</v>
       </c>
       <c r="G22">
-        <v>1.414214871005015</v>
+        <v>1.390478845362594</v>
       </c>
       <c r="H22">
-        <v>0.01739243326477791</v>
+        <v>0.01377308918763653</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7732207311835566</v>
+        <v>0.4322598822645176</v>
       </c>
       <c r="K22">
-        <v>0.6475712311673547</v>
+        <v>0.4840546502221059</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1990585988256477</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1912535595213853</v>
       </c>
       <c r="N22">
-        <v>0.6578447441025759</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.523675425136652</v>
+        <v>0.656085921810174</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.610985318379683</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.191169038588157</v>
+        <v>4.752018835859928</v>
       </c>
       <c r="C23">
-        <v>0.9228455161443208</v>
+        <v>0.9785478729450006</v>
       </c>
       <c r="D23">
-        <v>0.02969136493051749</v>
+        <v>0.04131038824309741</v>
       </c>
       <c r="E23">
-        <v>0.08544367562277522</v>
+        <v>0.07710280330614516</v>
       </c>
       <c r="F23">
-        <v>1.452243931771193</v>
+        <v>1.216415985542767</v>
       </c>
       <c r="G23">
-        <v>1.366351506980834</v>
+        <v>1.299387790524122</v>
       </c>
       <c r="H23">
-        <v>0.01541864610388055</v>
+        <v>0.01231574678532135</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7530414271865027</v>
+        <v>0.4857641907991024</v>
       </c>
       <c r="K23">
-        <v>0.6326472284200619</v>
+        <v>0.4840453077676514</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2026133698052845</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1860150618209317</v>
       </c>
       <c r="N23">
-        <v>0.6345445135942924</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5353130068712915</v>
+        <v>0.6348674287126528</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6126215860356226</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.437827487697348</v>
+        <v>4.136849579122838</v>
       </c>
       <c r="C24">
-        <v>0.7947763708919524</v>
+        <v>0.8655470658434012</v>
       </c>
       <c r="D24">
-        <v>0.02801839807576556</v>
+        <v>0.03523191603759557</v>
       </c>
       <c r="E24">
-        <v>0.07680822992874603</v>
+        <v>0.06940386700522971</v>
       </c>
       <c r="F24">
-        <v>1.268261663133842</v>
+        <v>1.117175763196457</v>
       </c>
       <c r="G24">
-        <v>1.189891439427328</v>
+        <v>1.031940912276454</v>
       </c>
       <c r="H24">
-        <v>0.008937993157641239</v>
+        <v>0.007383504625029402</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6791284139967502</v>
+        <v>0.6196933041004371</v>
       </c>
       <c r="K24">
-        <v>0.5785667935436081</v>
+        <v>0.4732687415534116</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.21250252999738</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1625945580262211</v>
       </c>
       <c r="N24">
-        <v>0.5469024165815455</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.5812603095324391</v>
+        <v>0.5524173455009702</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6293160894838934</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.632776367229098</v>
+        <v>3.408468158590836</v>
       </c>
       <c r="C25">
-        <v>0.6581882536985404</v>
+        <v>0.7123475733023668</v>
       </c>
       <c r="D25">
-        <v>0.02615411843299853</v>
+        <v>0.03123533188689009</v>
       </c>
       <c r="E25">
-        <v>0.06772465825923391</v>
+        <v>0.0620257151119521</v>
       </c>
       <c r="F25">
-        <v>1.078533432908557</v>
+        <v>0.9637936997853274</v>
       </c>
       <c r="G25">
-        <v>1.008277704637663</v>
+        <v>0.8729197161684965</v>
       </c>
       <c r="H25">
-        <v>0.003786960447916599</v>
+        <v>0.003221108164805364</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6040481529919219</v>
+        <v>0.5764728475843413</v>
       </c>
       <c r="K25">
-        <v>0.524763348032053</v>
+        <v>0.4411375400349229</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2153136969537428</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1317022044475813</v>
       </c>
       <c r="N25">
-        <v>0.4533462978707661</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6344864084697619</v>
+        <v>0.4595552791255528</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6641364941018892</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
